--- a/biology/Zoologie/Cetotherium/Cetotherium.xlsx
+++ b/biology/Zoologie/Cetotherium/Cetotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cetotherium est un genre disparu de baleines qui a vécu du Miocène au milieu du Pliocène (de - 16 Ma à - 3 Ma). Il s'agit du descendant du genre Janjucetus. Il représente l'une des premières baleines à fanons[réf. nécessaire].
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom veut dire « animal cétacé » (du grec « cetus » baleine et « therium » bête, animal).
 </t>
@@ -544,7 +558,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal avait deux grands prédateurs : Megalodon et Livyatan melvillei.
 </t>
@@ -575,10 +591,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cetotherium furlongi
-Cetotherium riabinini[2]
+Cetotherium riabinini
 Cetotherium rathkii (type)</t>
         </is>
       </c>
